--- a/data/trans_orig/P24B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{036CC69D-BBA0-4B11-81A0-BCAC6A084C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8CF31CB-FECD-49AD-9753-601E38FD9466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F994D15A-FBF2-4DD6-A8C3-F95AE40441AB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7735F9D-89B6-4D48-97E1-B633A17503C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="329">
   <si>
     <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,952 +76,943 @@
     <t>17,33%</t>
   </si>
   <si>
-    <t>13,82%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>Igual</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>Más</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>18,76%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2015 (Tasa respuesta: 30,07%)</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>Igual</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>Más</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>11,37%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2015 (Tasa respuesta: 30,07%)</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
   </si>
   <si>
     <t>15,88%</t>
@@ -1445,7 +1436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BAB444-2C93-42BB-9929-6E9F3F0F52EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC056D9-585C-48CC-8B76-1DDEBEB3DD48}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1790,13 +1781,13 @@
         <v>92207</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>200</v>
@@ -1805,13 +1796,13 @@
         <v>208727</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1817,13 @@
         <v>579670</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>327</v>
@@ -1841,13 +1832,13 @@
         <v>332422</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>897</v>
@@ -1856,13 +1847,13 @@
         <v>912092</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1868,13 @@
         <v>120566</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>125</v>
@@ -1892,13 +1883,13 @@
         <v>123428</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>240</v>
@@ -1907,13 +1898,13 @@
         <v>243993</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,7 +1960,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1981,13 +1972,13 @@
         <v>34508</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -1996,13 +1987,13 @@
         <v>34632</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -2011,13 +2002,13 @@
         <v>69140</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,13 +2023,13 @@
         <v>130586</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -2047,13 +2038,13 @@
         <v>85755</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>209</v>
@@ -2062,13 +2053,13 @@
         <v>216341</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2074,13 @@
         <v>27782</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -2098,13 +2089,13 @@
         <v>18347</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -2113,13 +2104,13 @@
         <v>46129</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,13 +2178,13 @@
         <v>215817</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>152</v>
@@ -2202,13 +2193,13 @@
         <v>159958</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>362</v>
@@ -2217,13 +2208,13 @@
         <v>375775</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2229,13 @@
         <v>975027</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>515</v>
@@ -2253,13 +2244,13 @@
         <v>526495</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>1468</v>
@@ -2268,13 +2259,13 @@
         <v>1501521</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2280,13 @@
         <v>192576</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>178</v>
@@ -2304,13 +2295,13 @@
         <v>176877</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>362</v>
@@ -2319,13 +2310,13 @@
         <v>369453</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,7 +2372,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2400,7 +2391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B762372-7A76-4D12-9C4C-6B6F796A7F7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0015F49-1B52-4899-9F78-4AE379193F49}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2417,7 +2408,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2524,13 +2515,13 @@
         <v>101634</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -2539,13 +2530,13 @@
         <v>53837</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>148</v>
@@ -2554,13 +2545,13 @@
         <v>155471</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,13 +2566,13 @@
         <v>175075</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -2590,13 +2581,13 @@
         <v>105388</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>265</v>
@@ -2605,13 +2596,13 @@
         <v>280463</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2617,13 @@
         <v>58296</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H6" s="7">
         <v>37</v>
@@ -2641,13 +2632,13 @@
         <v>40812</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M6" s="7">
         <v>91</v>
@@ -2656,13 +2647,13 @@
         <v>99108</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2721,13 @@
         <v>262052</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>140</v>
@@ -2745,13 +2736,13 @@
         <v>153205</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>379</v>
@@ -2760,13 +2751,13 @@
         <v>415258</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2772,13 @@
         <v>461366</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H9" s="7">
         <v>310</v>
@@ -2796,13 +2787,13 @@
         <v>336926</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M9" s="7">
         <v>746</v>
@@ -2811,13 +2802,13 @@
         <v>798291</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2823,13 @@
         <v>129663</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>135</v>
@@ -2847,13 +2838,13 @@
         <v>146680</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>260</v>
@@ -2862,13 +2853,13 @@
         <v>276343</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,7 +2915,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2936,13 +2927,13 @@
         <v>41481</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H12" s="7">
         <v>47</v>
@@ -2951,13 +2942,13 @@
         <v>51146</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -2966,13 +2957,13 @@
         <v>92627</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2978,13 @@
         <v>91020</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>63</v>
@@ -3002,13 +2993,13 @@
         <v>69753</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -3017,13 +3008,13 @@
         <v>160772</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3029,13 @@
         <v>28935</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -3053,13 +3044,13 @@
         <v>18524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -3068,13 +3059,13 @@
         <v>47459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3133,13 @@
         <v>405168</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -3157,13 +3148,13 @@
         <v>258188</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>611</v>
@@ -3172,13 +3163,13 @@
         <v>663356</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3184,13 @@
         <v>727460</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>472</v>
@@ -3208,13 +3199,13 @@
         <v>512066</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>1160</v>
@@ -3223,13 +3214,13 @@
         <v>1239526</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3235,13 @@
         <v>216894</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H18" s="7">
         <v>189</v>
@@ -3259,13 +3250,13 @@
         <v>206016</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M18" s="7">
         <v>391</v>
@@ -3274,13 +3265,13 @@
         <v>422910</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,7 +3327,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76432811-67B1-4DFE-A90F-44F0D85AD40D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DF689-6864-4D74-950B-D9196D3F8626}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3372,7 +3363,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3479,13 +3470,13 @@
         <v>38098</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -3494,13 +3485,13 @@
         <v>26113</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -3509,13 +3500,13 @@
         <v>64212</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3521,13 @@
         <v>164696</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>90</v>
@@ -3545,13 +3536,13 @@
         <v>91081</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>246</v>
@@ -3560,13 +3551,13 @@
         <v>255778</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3572,13 @@
         <v>20779</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -3596,13 +3587,13 @@
         <v>18133</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M6" s="7">
         <v>37</v>
@@ -3611,13 +3602,13 @@
         <v>38912</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3676,13 @@
         <v>183172</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>135</v>
@@ -3700,13 +3691,13 @@
         <v>141316</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>306</v>
@@ -3715,13 +3706,13 @@
         <v>324488</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3727,13 @@
         <v>511943</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H9" s="7">
         <v>419</v>
@@ -3751,13 +3742,13 @@
         <v>429840</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M9" s="7">
         <v>896</v>
@@ -3766,13 +3757,13 @@
         <v>941782</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3778,13 @@
         <v>105841</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>84</v>
@@ -3802,13 +3793,13 @@
         <v>87845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>179</v>
@@ -3817,13 +3808,13 @@
         <v>193686</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,7 +3870,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3891,13 +3882,13 @@
         <v>31926</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -3906,13 +3897,13 @@
         <v>29775</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
@@ -3921,13 +3912,13 @@
         <v>61700</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3933,13 @@
         <v>90905</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -3957,13 +3948,13 @@
         <v>71229</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>152</v>
@@ -3972,13 +3963,13 @@
         <v>162134</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3984,13 @@
         <v>12319</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -4008,13 +3999,13 @@
         <v>16597</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -4023,13 +4014,13 @@
         <v>28916</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4088,13 @@
         <v>253197</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>187</v>
@@ -4112,13 +4103,13 @@
         <v>197204</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>424</v>
@@ -4127,13 +4118,13 @@
         <v>450400</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4139,13 @@
         <v>767544</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>579</v>
@@ -4163,10 +4154,10 @@
         <v>592150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>27</v>
@@ -4178,13 +4169,13 @@
         <v>1359694</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4190,13 @@
         <v>138939</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H18" s="7">
         <v>117</v>
@@ -4214,13 +4205,13 @@
         <v>122575</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>38</v>
+        <v>324</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M18" s="7">
         <v>243</v>
@@ -4229,13 +4220,13 @@
         <v>261514</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,7 +4282,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8CF31CB-FECD-49AD-9753-601E38FD9466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A705EFC2-5425-49E5-8FAB-8EB7AC58ED09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7735F9D-89B6-4D48-97E1-B633A17503C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{506D05C8-BD27-4230-B89C-4C979704F781}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="333">
   <si>
     <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>17,33%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>Igual</t>
@@ -106,28 +106,28 @@
     <t>70,83%</t>
   </si>
   <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
   </si>
   <si>
     <t>61,36%</t>
   </si>
   <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
   </si>
   <si>
     <t>67,79%</t>
   </si>
   <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
   </si>
   <si>
     <t>Más</t>
@@ -136,28 +136,28 @@
     <t>11,83%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,862 +169,874 @@
     <t>14,27%</t>
   </si>
   <si>
-    <t>11,9%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
     <t>13,91%</t>
   </si>
   <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
   </si>
   <si>
     <t>56,68%</t>
   </si>
   <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2012 (Tasa respuesta: 33,29%)</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2015 (Tasa respuesta: 30,07%)</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>23,46%</t>
   </si>
   <si>
     <t>66,19%</t>
   </si>
   <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
   </si>
   <si>
     <t>64,93%</t>
   </si>
   <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
     <t>65,63%</t>
   </si>
   <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC056D9-585C-48CC-8B76-1DDEBEB3DD48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB68581E-DA4A-41FD-8CA0-A442D5C437B4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1781,13 +1793,13 @@
         <v>92207</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>200</v>
@@ -1796,13 +1808,13 @@
         <v>208727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,13 +1829,13 @@
         <v>579670</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>327</v>
@@ -1832,13 +1844,13 @@
         <v>332422</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>897</v>
@@ -1847,13 +1859,13 @@
         <v>912092</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1880,13 @@
         <v>120566</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>125</v>
@@ -1883,13 +1895,13 @@
         <v>123428</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>240</v>
@@ -1898,13 +1910,13 @@
         <v>243993</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,7 +1972,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1972,13 +1984,13 @@
         <v>34508</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -1987,13 +1999,13 @@
         <v>34632</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -2002,13 +2014,13 @@
         <v>69140</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,10 +2035,10 @@
         <v>130586</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>80</v>
@@ -2104,13 +2116,13 @@
         <v>46129</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,13 +2190,13 @@
         <v>215817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>152</v>
@@ -2193,13 +2205,13 @@
         <v>159958</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>362</v>
@@ -2208,13 +2220,13 @@
         <v>375775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +2241,13 @@
         <v>975027</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>515</v>
@@ -2244,13 +2256,13 @@
         <v>526495</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>1468</v>
@@ -2259,13 +2271,13 @@
         <v>1501521</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,13 +2292,13 @@
         <v>192576</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>178</v>
@@ -2295,13 +2307,13 @@
         <v>176877</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>362</v>
@@ -2310,13 +2322,13 @@
         <v>369453</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,7 +2384,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0015F49-1B52-4899-9F78-4AE379193F49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8546A67D-508E-4E4B-9A61-797333389B8C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2408,7 +2420,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2515,13 +2527,13 @@
         <v>101634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -2530,13 +2542,13 @@
         <v>53837</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>148</v>
@@ -2545,13 +2557,13 @@
         <v>155471</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2578,13 @@
         <v>175075</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -2581,13 +2593,13 @@
         <v>105388</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>265</v>
@@ -2596,13 +2608,13 @@
         <v>280463</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2629,13 @@
         <v>58296</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H6" s="7">
         <v>37</v>
@@ -2632,13 +2644,13 @@
         <v>40812</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="M6" s="7">
         <v>91</v>
@@ -2823,13 +2835,13 @@
         <v>129663</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>135</v>
@@ -2838,13 +2850,13 @@
         <v>146680</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>260</v>
@@ -2853,13 +2865,13 @@
         <v>276343</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2927,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3008,13 +3020,13 @@
         <v>160772</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3041,13 @@
         <v>28935</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -3044,13 +3056,13 @@
         <v>18524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -3059,13 +3071,13 @@
         <v>47459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3145,13 @@
         <v>405168</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -3148,13 +3160,13 @@
         <v>258188</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>611</v>
@@ -3163,13 +3175,13 @@
         <v>663356</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3196,13 @@
         <v>727460</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
         <v>472</v>
@@ -3199,13 +3211,13 @@
         <v>512066</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>1160</v>
@@ -3214,13 +3226,13 @@
         <v>1239526</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3247,13 @@
         <v>216894</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H18" s="7">
         <v>189</v>
@@ -3250,13 +3262,13 @@
         <v>206016</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M18" s="7">
         <v>391</v>
@@ -3265,13 +3277,13 @@
         <v>422910</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,7 +3339,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3346,7 +3358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DF689-6864-4D74-950B-D9196D3F8626}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF5F63F-AB39-4F65-80AA-D3D6CE74BFB7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3363,7 +3375,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3470,13 +3482,13 @@
         <v>38098</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -3485,13 +3497,13 @@
         <v>26113</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -3500,13 +3512,13 @@
         <v>64212</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3533,13 @@
         <v>164696</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>90</v>
@@ -3536,13 +3548,13 @@
         <v>91081</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>246</v>
@@ -3551,13 +3563,13 @@
         <v>255778</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3584,13 @@
         <v>20779</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -3587,13 +3599,13 @@
         <v>18133</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>37</v>
@@ -3602,13 +3614,13 @@
         <v>38912</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3688,13 @@
         <v>183172</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>135</v>
@@ -3691,13 +3703,13 @@
         <v>141316</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>306</v>
@@ -3706,13 +3718,13 @@
         <v>324488</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>89</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3739,13 @@
         <v>511943</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>419</v>
@@ -3742,13 +3754,13 @@
         <v>429840</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M9" s="7">
         <v>896</v>
@@ -3757,13 +3769,13 @@
         <v>941782</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3790,13 @@
         <v>105841</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>84</v>
@@ -3793,13 +3805,13 @@
         <v>87845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>179</v>
@@ -3808,13 +3820,13 @@
         <v>193686</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,7 +3882,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3882,13 +3894,13 @@
         <v>31926</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -3897,13 +3909,13 @@
         <v>29775</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
@@ -3912,13 +3924,13 @@
         <v>61700</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3945,13 @@
         <v>90905</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -3948,13 +3960,13 @@
         <v>71229</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>152</v>
@@ -3963,13 +3975,13 @@
         <v>162134</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3996,13 @@
         <v>12319</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3999,13 +4011,13 @@
         <v>16597</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -4014,13 +4026,13 @@
         <v>28916</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4100,13 @@
         <v>253197</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>187</v>
@@ -4103,13 +4115,13 @@
         <v>197204</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>424</v>
@@ -4118,13 +4130,13 @@
         <v>450400</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4151,13 @@
         <v>767544</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>579</v>
@@ -4154,13 +4166,13 @@
         <v>592150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>1294</v>
@@ -4169,13 +4181,13 @@
         <v>1359694</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4202,13 @@
         <v>138939</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H18" s="7">
         <v>117</v>
@@ -4205,13 +4217,13 @@
         <v>122575</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>243</v>
@@ -4220,13 +4232,13 @@
         <v>261514</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4294,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A705EFC2-5425-49E5-8FAB-8EB7AC58ED09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB67DA26-A255-4961-A1A2-F12C78B469D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{506D05C8-BD27-4230-B89C-4C979704F781}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88763C4A-D1BF-400B-ADB9-0D3E5A3619B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="332">
   <si>
     <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,16 +76,16 @@
     <t>17,33%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>13,97%</t>
+    <t>13,89%</t>
   </si>
   <si>
     <t>25,34%</t>
@@ -94,10 +94,10 @@
     <t>17,79%</t>
   </si>
   <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>Igual</t>
@@ -106,28 +106,28 @@
     <t>70,83%</t>
   </si>
   <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
   </si>
   <si>
     <t>61,36%</t>
   </si>
   <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>67,79%</t>
   </si>
   <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>Más</t>
@@ -136,28 +136,28 @@
     <t>11,83%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,82 +169,82 @@
     <t>14,27%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
   </si>
   <si>
     <t>70,97%</t>
   </si>
   <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
   </si>
   <si>
     <t>60,65%</t>
   </si>
   <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
   </si>
   <si>
     <t>66,83%</t>
   </si>
   <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
   </si>
   <si>
     <t>22,52%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -253,40 +253,43 @@
     <t>17,89%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
   </si>
   <si>
     <t>67,7%</t>
   </si>
   <si>
-    <t>74,17%</t>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
   </si>
   <si>
     <t>61,81%</t>
   </si>
   <si>
-    <t>52,77%</t>
+    <t>52,97%</t>
   </si>
   <si>
     <t>69,57%</t>
@@ -295,115 +298,115 @@
     <t>65,24%</t>
   </si>
   <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
   </si>
   <si>
     <t>14,4%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
   </si>
   <si>
     <t>13,91%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
   </si>
   <si>
     <t>16,73%</t>
   </si>
   <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>70,48%</t>
   </si>
   <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
   </si>
   <si>
     <t>60,98%</t>
   </si>
   <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>20,49%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -415,166 +418,169 @@
     <t>30,34%</t>
   </si>
   <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
   </si>
   <si>
     <t>26,91%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>52,26%</t>
   </si>
   <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
   </si>
   <si>
     <t>52,68%</t>
   </si>
   <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
   </si>
   <si>
     <t>52,42%</t>
   </si>
   <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
   </si>
   <si>
     <t>52,91%</t>
   </si>
   <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
   </si>
   <si>
     <t>53,58%</t>
   </si>
   <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
   </si>
   <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>23,03%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>16,43%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>25,69%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
   </si>
   <si>
     <t>36,68%</t>
@@ -583,460 +589,451 @@
     <t>28,25%</t>
   </si>
   <si>
-    <t>45,47%</t>
+    <t>45,62%</t>
   </si>
   <si>
     <t>30,79%</t>
   </si>
   <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
     <t>25,0%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción de si fuma más, menos o igual que hace dos años en 2016 (Tasa respuesta: 30,07%)</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
   </si>
   <si>
     <t>11,44%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>24,46%</t>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
   </si>
   <si>
     <t>21,62%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
   </si>
   <si>
     <t>66,19%</t>
   </si>
   <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
   </si>
   <si>
     <t>64,93%</t>
   </si>
   <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
     <t>65,63%</t>
   </si>
   <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>15,88%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB68581E-DA4A-41FD-8CA0-A442D5C437B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E689C44E-571B-4C33-9C01-0DD7E147D3BF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2038,10 +2035,10 @@
         <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -2050,13 +2047,13 @@
         <v>85755</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>209</v>
@@ -2065,13 +2062,13 @@
         <v>216341</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,13 +2083,13 @@
         <v>27782</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -2101,13 +2098,13 @@
         <v>18347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -2116,13 +2113,13 @@
         <v>46129</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2187,13 @@
         <v>215817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>152</v>
@@ -2205,13 +2202,13 @@
         <v>159958</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>362</v>
@@ -2220,13 +2217,13 @@
         <v>375775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2238,13 @@
         <v>975027</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>515</v>
@@ -2256,13 +2253,13 @@
         <v>526495</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>1468</v>
@@ -2274,10 +2271,10 @@
         <v>57</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2289,13 @@
         <v>192576</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>178</v>
@@ -2307,13 +2304,13 @@
         <v>176877</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>362</v>
@@ -2322,13 +2319,13 @@
         <v>369453</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,7 +2381,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2403,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8546A67D-508E-4E4B-9A61-797333389B8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224B23AC-2E85-43CB-8B35-BD0C5C999A9E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2420,7 +2417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2527,13 +2524,13 @@
         <v>101634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -2542,13 +2539,13 @@
         <v>53837</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>148</v>
@@ -2557,13 +2554,13 @@
         <v>155471</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,13 +2575,13 @@
         <v>175075</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -2593,13 +2590,13 @@
         <v>105388</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>265</v>
@@ -2608,13 +2605,13 @@
         <v>280463</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,13 +2626,13 @@
         <v>58296</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H6" s="7">
         <v>37</v>
@@ -2644,13 +2641,13 @@
         <v>40812</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="M6" s="7">
         <v>91</v>
@@ -2659,13 +2656,13 @@
         <v>99108</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2730,13 @@
         <v>262052</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>140</v>
@@ -2748,13 +2745,13 @@
         <v>153205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>379</v>
@@ -2763,13 +2760,13 @@
         <v>415258</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2781,13 @@
         <v>461366</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H9" s="7">
         <v>310</v>
@@ -2799,13 +2796,13 @@
         <v>336926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M9" s="7">
         <v>746</v>
@@ -2814,13 +2811,13 @@
         <v>798291</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2832,13 @@
         <v>129663</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>135</v>
@@ -2850,13 +2847,13 @@
         <v>146680</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>260</v>
@@ -2865,13 +2862,13 @@
         <v>276343</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2936,13 @@
         <v>41481</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H12" s="7">
         <v>47</v>
@@ -2954,13 +2951,13 @@
         <v>51146</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -2969,13 +2966,13 @@
         <v>92627</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +2987,13 @@
         <v>91020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>63</v>
@@ -3005,13 +3002,13 @@
         <v>69753</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -3020,13 +3017,13 @@
         <v>160772</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,13 +3038,13 @@
         <v>28935</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -3056,13 +3053,13 @@
         <v>18524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -3071,13 +3068,13 @@
         <v>47459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3142,13 @@
         <v>405168</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -3160,13 +3157,13 @@
         <v>258188</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>611</v>
@@ -3175,13 +3172,13 @@
         <v>663356</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3193,13 @@
         <v>727460</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>472</v>
@@ -3211,13 +3208,13 @@
         <v>512066</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>1160</v>
@@ -3226,13 +3223,13 @@
         <v>1239526</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3244,13 @@
         <v>216894</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H18" s="7">
         <v>189</v>
@@ -3262,13 +3259,13 @@
         <v>206016</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M18" s="7">
         <v>391</v>
@@ -3277,13 +3274,13 @@
         <v>422910</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,7 +3336,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3358,7 +3355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF5F63F-AB39-4F65-80AA-D3D6CE74BFB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E845C794-D101-4073-B324-A350999082F3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3375,7 +3372,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3482,13 +3479,13 @@
         <v>38098</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -3497,13 +3494,13 @@
         <v>26113</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -3515,10 +3512,10 @@
         <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3530,13 @@
         <v>164696</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>90</v>
@@ -3548,13 +3545,13 @@
         <v>91081</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>246</v>
@@ -3563,13 +3560,13 @@
         <v>255778</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3581,13 @@
         <v>20779</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -3975,10 +3972,10 @@
         <v>162134</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>298</v>
@@ -4011,13 +4008,13 @@
         <v>16597</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -4026,13 +4023,13 @@
         <v>28916</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4097,13 @@
         <v>253197</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>187</v>
@@ -4115,13 +4112,13 @@
         <v>197204</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>424</v>
@@ -4130,13 +4127,13 @@
         <v>450400</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4148,13 @@
         <v>767544</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>579</v>
@@ -4166,13 +4163,13 @@
         <v>592150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="M17" s="7">
         <v>1294</v>
@@ -4220,10 +4217,10 @@
         <v>327</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>243</v>
@@ -4232,13 +4229,13 @@
         <v>261514</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,7 +4291,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB67DA26-A255-4961-A1A2-F12C78B469D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D76B91EA-AB1E-40CB-AAAD-420D182674D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88763C4A-D1BF-400B-ADB9-0D3E5A3619B9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E7C9796B-6D34-445B-B2B4-4F32FC694D31}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1445,7 +1445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E689C44E-571B-4C33-9C01-0DD7E147D3BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C289CA3-D4F2-4824-BE28-76003BFB8365}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1838,7 +1838,7 @@
         <v>327</v>
       </c>
       <c r="I9" s="7">
-        <v>332422</v>
+        <v>332421</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1889,7 +1889,7 @@
         <v>125</v>
       </c>
       <c r="I10" s="7">
-        <v>123428</v>
+        <v>123427</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1940,7 +1940,7 @@
         <v>540</v>
       </c>
       <c r="I11" s="7">
-        <v>548056</v>
+        <v>548055</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2400,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224B23AC-2E85-43CB-8B35-BD0C5C999A9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C07811-F07C-4D1F-9255-46BF70F1546A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3355,7 +3355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E845C794-D101-4073-B324-A350999082F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B0CEC5-884F-4509-A414-2678562214A9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
